--- a/Modulo5/src/out/info_estados/Indiana.xlsx
+++ b/Modulo5/src/out/info_estados/Indiana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="118">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>I</t>
@@ -797,14 +803,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>1031</v>
       </c>
       <c r="M2">
         <v>18001</v>
@@ -841,14 +847,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>992</v>
       </c>
       <c r="M3">
         <v>18001</v>
@@ -885,14 +891,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2459</v>
       </c>
       <c r="M4">
         <v>18001</v>
@@ -929,14 +935,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="M5">
         <v>18001</v>
@@ -973,14 +979,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3852</v>
       </c>
       <c r="M6">
         <v>18001</v>
@@ -1017,14 +1023,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>115</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>16436</v>
       </c>
       <c r="M7">
         <v>18003</v>
@@ -1061,14 +1067,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>15033</v>
       </c>
       <c r="M8">
         <v>18003</v>
@@ -1105,14 +1111,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>29474</v>
       </c>
       <c r="M9">
         <v>18003</v>
@@ -1149,14 +1155,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>4875</v>
       </c>
       <c r="M10">
         <v>18003</v>
@@ -1193,14 +1199,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>29964</v>
       </c>
       <c r="M11">
         <v>18003</v>
@@ -1237,14 +1243,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3183</v>
       </c>
       <c r="M12">
         <v>18005</v>
@@ -1281,14 +1287,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>2779</v>
       </c>
       <c r="M13">
         <v>18005</v>
@@ -1325,14 +1331,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>7919</v>
       </c>
       <c r="M14">
         <v>18005</v>
@@ -1369,14 +1375,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>116</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1451</v>
       </c>
       <c r="M15">
         <v>18005</v>
@@ -1413,14 +1419,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>6284</v>
       </c>
       <c r="M16">
         <v>18005</v>
@@ -1457,14 +1463,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>115</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="M17">
         <v>18007</v>
@@ -1501,14 +1507,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="M18">
         <v>18007</v>
@@ -1545,14 +1551,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>1176</v>
       </c>
       <c r="M19">
         <v>18007</v>
@@ -1589,14 +1595,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="M20">
         <v>18007</v>
@@ -1633,14 +1639,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>721</v>
       </c>
       <c r="M21">
         <v>18007</v>
@@ -1677,14 +1683,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>115</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>515</v>
       </c>
       <c r="M22">
         <v>18009</v>
@@ -1721,14 +1727,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="M23">
         <v>18009</v>
@@ -1765,14 +1771,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>116</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>1020</v>
       </c>
       <c r="M24">
         <v>18009</v>
@@ -1809,14 +1815,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M25">
         <v>18009</v>
@@ -1853,14 +1859,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>116</v>
       </c>
       <c r="K26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>801</v>
       </c>
       <c r="M26">
         <v>18009</v>
@@ -1897,14 +1903,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>115</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>2556</v>
       </c>
       <c r="M27">
         <v>18011</v>
@@ -1941,14 +1947,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2076</v>
       </c>
       <c r="M28">
         <v>18011</v>
@@ -1985,14 +1991,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>116</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>7024</v>
       </c>
       <c r="M29">
         <v>18011</v>
@@ -2029,14 +2035,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>1729</v>
       </c>
       <c r="M30">
         <v>18011</v>
@@ -2073,14 +2079,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>6224</v>
       </c>
       <c r="M31">
         <v>18011</v>
@@ -2117,14 +2123,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>115</v>
       </c>
       <c r="K32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>1270</v>
       </c>
       <c r="M32">
         <v>18013</v>
@@ -2161,14 +2167,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>115</v>
       </c>
       <c r="K33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>806</v>
       </c>
       <c r="M33">
         <v>18013</v>
@@ -2205,14 +2211,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>116</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>2203</v>
       </c>
       <c r="M34">
         <v>18013</v>
@@ -2249,14 +2255,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="M35">
         <v>18013</v>
@@ -2293,14 +2299,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1388</v>
       </c>
       <c r="M36">
         <v>18013</v>
@@ -2337,14 +2343,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>115</v>
       </c>
       <c r="K37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>649</v>
       </c>
       <c r="M37">
         <v>18015</v>
@@ -2381,14 +2387,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>115</v>
       </c>
       <c r="K38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="M38">
         <v>18015</v>
@@ -2425,14 +2431,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>116</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>2422</v>
       </c>
       <c r="M39">
         <v>18015</v>
@@ -2469,14 +2475,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>116</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="M40">
         <v>18015</v>
@@ -2513,14 +2519,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>1738</v>
       </c>
       <c r="M41">
         <v>18015</v>
@@ -2557,14 +2563,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>115</v>
       </c>
       <c r="K42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>1656</v>
       </c>
       <c r="M42">
         <v>18017</v>
@@ -2601,14 +2607,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>115</v>
       </c>
       <c r="K43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>1138</v>
       </c>
       <c r="M43">
         <v>18017</v>
@@ -2645,14 +2651,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>116</v>
       </c>
       <c r="K44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3942</v>
       </c>
       <c r="M44">
         <v>18017</v>
@@ -2689,14 +2695,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>116</v>
       </c>
       <c r="K45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="M45">
         <v>18017</v>
@@ -2733,14 +2739,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>116</v>
       </c>
       <c r="K46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>2363</v>
       </c>
       <c r="M46">
         <v>18017</v>
@@ -2777,14 +2783,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>115</v>
       </c>
       <c r="K47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>5306</v>
       </c>
       <c r="M47">
         <v>18019</v>
@@ -2821,14 +2827,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>115</v>
       </c>
       <c r="K48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>6193</v>
       </c>
       <c r="M48">
         <v>18019</v>
@@ -2865,14 +2871,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>116</v>
       </c>
       <c r="K49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>10636</v>
       </c>
       <c r="M49">
         <v>18019</v>
@@ -2909,14 +2915,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>116</v>
       </c>
       <c r="K50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>901</v>
       </c>
       <c r="M50">
         <v>18019</v>
@@ -2953,14 +2959,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>116</v>
       </c>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5851</v>
       </c>
       <c r="M51">
         <v>18019</v>
@@ -2997,14 +3003,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>115</v>
       </c>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>1050</v>
       </c>
       <c r="M52">
         <v>18021</v>
@@ -3041,14 +3047,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>115</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>932</v>
       </c>
       <c r="M53">
         <v>18021</v>
@@ -3085,14 +3091,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>116</v>
       </c>
       <c r="K54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3616</v>
       </c>
       <c r="M54">
         <v>18021</v>
@@ -3129,14 +3135,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>116</v>
       </c>
       <c r="K55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="M55">
         <v>18021</v>
@@ -3173,14 +3179,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>116</v>
       </c>
       <c r="K56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>1789</v>
       </c>
       <c r="M56">
         <v>18021</v>
@@ -3217,14 +3223,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>115</v>
       </c>
       <c r="K57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>1047</v>
       </c>
       <c r="M57">
         <v>18023</v>
@@ -3261,14 +3267,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>115</v>
       </c>
       <c r="K58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>725</v>
       </c>
       <c r="M58">
         <v>18023</v>
@@ -3305,14 +3311,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>116</v>
       </c>
       <c r="K59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3253</v>
       </c>
       <c r="M59">
         <v>18023</v>
@@ -3349,14 +3355,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>116</v>
       </c>
       <c r="K60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>475</v>
       </c>
       <c r="M60">
         <v>18023</v>
@@ -3393,14 +3399,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>116</v>
       </c>
       <c r="K61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>2638</v>
       </c>
       <c r="M61">
         <v>18023</v>
@@ -3437,14 +3443,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>115</v>
       </c>
       <c r="K62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>617</v>
       </c>
       <c r="M62">
         <v>18025</v>
@@ -3481,14 +3487,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>115</v>
       </c>
       <c r="K63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>685</v>
       </c>
       <c r="M63">
         <v>18025</v>
@@ -3525,14 +3531,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>116</v>
       </c>
       <c r="K64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>1163</v>
       </c>
       <c r="M64">
         <v>18025</v>
@@ -3569,14 +3575,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>116</v>
       </c>
       <c r="K65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M65">
         <v>18025</v>
@@ -3613,14 +3619,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>116</v>
       </c>
       <c r="K66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>635</v>
       </c>
       <c r="M66">
         <v>18025</v>
@@ -3657,14 +3663,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>115</v>
       </c>
       <c r="K67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>702</v>
       </c>
       <c r="M67">
         <v>18027</v>
@@ -3701,14 +3707,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>115</v>
       </c>
       <c r="K68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="M68">
         <v>18027</v>
@@ -3745,14 +3751,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>116</v>
       </c>
       <c r="K69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3895</v>
       </c>
       <c r="M69">
         <v>18027</v>
@@ -3789,14 +3795,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>116</v>
       </c>
       <c r="K70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="M70">
         <v>18027</v>
@@ -3833,14 +3839,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>116</v>
       </c>
       <c r="K71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>1921</v>
       </c>
       <c r="M71">
         <v>18027</v>
@@ -3877,14 +3883,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>115</v>
       </c>
       <c r="K72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>1270</v>
       </c>
       <c r="M72">
         <v>18033</v>
@@ -3921,14 +3927,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>115</v>
       </c>
       <c r="K73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1140</v>
       </c>
       <c r="M73">
         <v>18033</v>
@@ -3965,14 +3971,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>116</v>
       </c>
       <c r="K74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4204</v>
       </c>
       <c r="M74">
         <v>18033</v>
@@ -4009,14 +4015,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>116</v>
       </c>
       <c r="K75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>625</v>
       </c>
       <c r="M75">
         <v>18033</v>
@@ -4053,14 +4059,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>116</v>
       </c>
       <c r="K76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3749</v>
       </c>
       <c r="M76">
         <v>18033</v>
@@ -4097,14 +4103,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>115</v>
       </c>
       <c r="K77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>1246</v>
       </c>
       <c r="M77">
         <v>18029</v>
@@ -4141,14 +4147,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>115</v>
       </c>
       <c r="K78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>1390</v>
       </c>
       <c r="M78">
         <v>18029</v>
@@ -4185,14 +4191,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>116</v>
       </c>
       <c r="K79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>6618</v>
       </c>
       <c r="M79">
         <v>18029</v>
@@ -4229,14 +4235,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>116</v>
       </c>
       <c r="K80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1087</v>
       </c>
       <c r="M80">
         <v>18029</v>
@@ -4273,14 +4279,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>116</v>
       </c>
       <c r="K81" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>2376</v>
       </c>
       <c r="M81">
         <v>18029</v>
@@ -4317,14 +4323,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>115</v>
       </c>
       <c r="K82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>734</v>
       </c>
       <c r="M82">
         <v>18031</v>
@@ -4361,14 +4367,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>115</v>
       </c>
       <c r="K83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="M83">
         <v>18031</v>
@@ -4405,14 +4411,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>116</v>
       </c>
       <c r="K84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3320</v>
       </c>
       <c r="M84">
         <v>18031</v>
@@ -4449,14 +4455,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>116</v>
       </c>
       <c r="K85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="M85">
         <v>18031</v>
@@ -4493,14 +4499,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>116</v>
       </c>
       <c r="K86" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>2079</v>
       </c>
       <c r="M86">
         <v>18031</v>
@@ -4537,14 +4543,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>115</v>
       </c>
       <c r="K87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>7729</v>
       </c>
       <c r="M87">
         <v>18035</v>
@@ -4581,14 +4587,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>115</v>
       </c>
       <c r="K88" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>6138</v>
       </c>
       <c r="M88">
         <v>18035</v>
@@ -4625,14 +4631,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>116</v>
       </c>
       <c r="K89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>8794</v>
       </c>
       <c r="M89">
         <v>18035</v>
@@ -4669,14 +4675,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>116</v>
       </c>
       <c r="K90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>1256</v>
       </c>
       <c r="M90">
         <v>18035</v>
@@ -4713,14 +4719,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>116</v>
       </c>
       <c r="K91" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>6154</v>
       </c>
       <c r="M91">
         <v>18035</v>
@@ -4757,14 +4763,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>115</v>
       </c>
       <c r="K92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>2294</v>
       </c>
       <c r="M92">
         <v>18037</v>
@@ -4801,14 +4807,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>115</v>
       </c>
       <c r="K93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>2306</v>
       </c>
       <c r="M93">
         <v>18037</v>
@@ -4845,14 +4851,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>116</v>
       </c>
       <c r="K94" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>4693</v>
       </c>
       <c r="M94">
         <v>18037</v>
@@ -4889,14 +4895,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>116</v>
       </c>
       <c r="K95" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="M95">
         <v>18037</v>
@@ -4933,14 +4939,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>116</v>
       </c>
       <c r="K96" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>2476</v>
       </c>
       <c r="M96">
         <v>18037</v>
@@ -4977,14 +4983,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>115</v>
       </c>
       <c r="K97" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>6936</v>
       </c>
       <c r="M97">
         <v>18039</v>
@@ -5021,14 +5027,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>115</v>
       </c>
       <c r="K98" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4789</v>
       </c>
       <c r="M98">
         <v>18039</v>
@@ -5065,14 +5071,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>14463</v>
       </c>
       <c r="M99">
         <v>18039</v>
@@ -5109,14 +5115,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2447</v>
       </c>
       <c r="M100">
         <v>18039</v>
@@ -5153,14 +5159,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>116</v>
       </c>
       <c r="K101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>16205</v>
       </c>
       <c r="M101">
         <v>18039</v>
@@ -5197,14 +5203,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>115</v>
       </c>
       <c r="K102" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1098</v>
       </c>
       <c r="M102">
         <v>18041</v>
@@ -5241,14 +5247,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>115</v>
       </c>
       <c r="K103" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>985</v>
       </c>
       <c r="M103">
         <v>18041</v>
@@ -5285,14 +5291,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>116</v>
       </c>
       <c r="K104" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>2745</v>
       </c>
       <c r="M104">
         <v>18041</v>
@@ -5329,14 +5335,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>116</v>
       </c>
       <c r="K105" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="M105">
         <v>18041</v>
@@ -5373,14 +5379,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>116</v>
       </c>
       <c r="K106" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="M106">
         <v>18041</v>
@@ -5417,14 +5423,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>115</v>
       </c>
       <c r="K107" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>4109</v>
       </c>
       <c r="M107">
         <v>18043</v>
@@ -5461,14 +5467,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>115</v>
       </c>
       <c r="K108" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4585</v>
       </c>
       <c r="M108">
         <v>18043</v>
@@ -5505,14 +5511,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>116</v>
       </c>
       <c r="K109" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>7457</v>
       </c>
       <c r="M109">
         <v>18043</v>
@@ -5549,14 +5555,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>116</v>
       </c>
       <c r="K110" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>1046</v>
       </c>
       <c r="M110">
         <v>18043</v>
@@ -5593,14 +5599,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>116</v>
       </c>
       <c r="K111" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>4497</v>
       </c>
       <c r="M111">
         <v>18043</v>
@@ -5637,14 +5643,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>115</v>
       </c>
       <c r="K112" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="M112">
         <v>18045</v>
@@ -5681,14 +5687,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>115</v>
       </c>
       <c r="K113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="M113">
         <v>18045</v>
@@ -5725,14 +5731,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>116</v>
       </c>
       <c r="K114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>2743</v>
       </c>
       <c r="M114">
         <v>18045</v>
@@ -5769,14 +5775,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>116</v>
       </c>
       <c r="K115" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="M115">
         <v>18045</v>
@@ -5813,14 +5819,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>116</v>
       </c>
       <c r="K116" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>1302</v>
       </c>
       <c r="M116">
         <v>18045</v>
@@ -5857,14 +5863,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>115</v>
       </c>
       <c r="K117" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="M117">
         <v>18047</v>
@@ -5901,14 +5907,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>115</v>
       </c>
       <c r="K118" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>668</v>
       </c>
       <c r="M118">
         <v>18047</v>
@@ -5945,14 +5951,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>116</v>
       </c>
       <c r="K119" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3488</v>
       </c>
       <c r="M119">
         <v>18047</v>
@@ -5989,14 +5995,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>116</v>
       </c>
       <c r="K120" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="M120">
         <v>18047</v>
@@ -6033,14 +6039,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>116</v>
       </c>
       <c r="K121" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>1327</v>
       </c>
       <c r="M121">
         <v>18047</v>
@@ -6077,14 +6083,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>115</v>
       </c>
       <c r="K122" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>684</v>
       </c>
       <c r="M122">
         <v>18049</v>
@@ -6121,14 +6127,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>115</v>
       </c>
       <c r="K123" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>595</v>
       </c>
       <c r="M123">
         <v>18049</v>
@@ -6165,14 +6171,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>116</v>
       </c>
       <c r="K124" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>2557</v>
       </c>
       <c r="M124">
         <v>18049</v>
@@ -6209,14 +6215,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>116</v>
       </c>
       <c r="K125" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="M125">
         <v>18049</v>
@@ -6253,14 +6259,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>116</v>
       </c>
       <c r="K126" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>1434</v>
       </c>
       <c r="M126">
         <v>18049</v>
@@ -6297,14 +6303,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>115</v>
       </c>
       <c r="K127" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>1454</v>
       </c>
       <c r="M127">
         <v>18051</v>
@@ -6341,14 +6347,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>115</v>
       </c>
       <c r="K128" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>1485</v>
       </c>
       <c r="M128">
         <v>18051</v>
@@ -6385,14 +6391,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>116</v>
       </c>
       <c r="K129" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4238</v>
       </c>
       <c r="M129">
         <v>18051</v>
@@ -6429,14 +6435,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>116</v>
       </c>
       <c r="K130" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="M130">
         <v>18051</v>
@@ -6473,14 +6479,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>116</v>
       </c>
       <c r="K131" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>2264</v>
       </c>
       <c r="M131">
         <v>18051</v>
@@ -6517,14 +6523,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>115</v>
       </c>
       <c r="K132" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>2345</v>
       </c>
       <c r="M132">
         <v>18053</v>
@@ -6561,14 +6567,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>115</v>
       </c>
       <c r="K133" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>2319</v>
       </c>
       <c r="M133">
         <v>18053</v>
@@ -6605,14 +6611,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>116</v>
       </c>
       <c r="K134" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>5993</v>
       </c>
       <c r="M134">
         <v>18053</v>
@@ -6649,14 +6655,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>116</v>
       </c>
       <c r="K135" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>740</v>
       </c>
       <c r="M135">
         <v>18053</v>
@@ -6693,14 +6699,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>116</v>
       </c>
       <c r="K136" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>5651</v>
       </c>
       <c r="M136">
         <v>18053</v>
@@ -6737,14 +6743,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>115</v>
       </c>
       <c r="K137" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>1465</v>
       </c>
       <c r="M137">
         <v>18055</v>
@@ -6781,14 +6787,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>115</v>
       </c>
       <c r="K138" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>1087</v>
       </c>
       <c r="M138">
         <v>18055</v>
@@ -6825,14 +6831,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>116</v>
       </c>
       <c r="K139" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>4492</v>
       </c>
       <c r="M139">
         <v>18055</v>
@@ -6869,14 +6875,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>116</v>
       </c>
       <c r="K140" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="M140">
         <v>18055</v>
@@ -6913,14 +6919,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>116</v>
       </c>
       <c r="K141" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>1972</v>
       </c>
       <c r="M141">
         <v>18055</v>
@@ -6957,14 +6963,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>115</v>
       </c>
       <c r="K142" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>14558</v>
       </c>
       <c r="M142">
         <v>18057</v>
@@ -7001,14 +7007,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>115</v>
       </c>
       <c r="K143" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>12298</v>
       </c>
       <c r="M143">
         <v>18057</v>
@@ -7045,14 +7051,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>116</v>
       </c>
       <c r="K144" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>35032</v>
       </c>
       <c r="M144">
         <v>18057</v>
@@ -7089,14 +7095,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>116</v>
       </c>
       <c r="K145" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>9595</v>
       </c>
       <c r="M145">
         <v>18057</v>
@@ -7133,14 +7139,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>116</v>
       </c>
       <c r="K146" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>29397</v>
       </c>
       <c r="M146">
         <v>18057</v>
@@ -7177,14 +7183,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>115</v>
       </c>
       <c r="K147" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>2601</v>
       </c>
       <c r="M147">
         <v>18059</v>
@@ -7221,14 +7227,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>115</v>
       </c>
       <c r="K148" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>1794</v>
       </c>
       <c r="M148">
         <v>18059</v>
@@ -7265,14 +7271,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>116</v>
       </c>
       <c r="K149" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>9521</v>
       </c>
       <c r="M149">
         <v>18059</v>
@@ -7309,14 +7315,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>116</v>
       </c>
       <c r="K150" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>1241</v>
       </c>
       <c r="M150">
         <v>18059</v>
@@ -7353,14 +7359,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>116</v>
       </c>
       <c r="K151" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>6565</v>
       </c>
       <c r="M151">
         <v>18059</v>
@@ -7397,14 +7403,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>115</v>
       </c>
       <c r="K152" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>1628</v>
       </c>
       <c r="M152">
         <v>18061</v>
@@ -7441,14 +7447,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>115</v>
       </c>
       <c r="K153" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>1888</v>
       </c>
       <c r="M153">
         <v>18061</v>
@@ -7485,14 +7491,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>116</v>
       </c>
       <c r="K154" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>4327</v>
       </c>
       <c r="M154">
         <v>18061</v>
@@ -7529,14 +7535,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>116</v>
       </c>
       <c r="K155" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="M155">
         <v>18061</v>
@@ -7573,14 +7579,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>116</v>
       </c>
       <c r="K156" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>2499</v>
       </c>
       <c r="M156">
         <v>18061</v>
@@ -7617,14 +7623,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>115</v>
       </c>
       <c r="K157" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>6899</v>
       </c>
       <c r="M157">
         <v>18063</v>
@@ -7661,14 +7667,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>115</v>
       </c>
       <c r="K158" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>4874</v>
       </c>
       <c r="M158">
         <v>18063</v>
@@ -7705,14 +7711,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>116</v>
       </c>
       <c r="K159" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>18556</v>
       </c>
       <c r="M159">
         <v>18063</v>
@@ -7749,14 +7755,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>116</v>
       </c>
       <c r="K160" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>2870</v>
       </c>
       <c r="M160">
         <v>18063</v>
@@ -7793,14 +7799,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>116</v>
       </c>
       <c r="K161" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>14877</v>
       </c>
       <c r="M161">
         <v>18063</v>
@@ -7837,14 +7843,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>115</v>
       </c>
       <c r="K162" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>2140</v>
       </c>
       <c r="M162">
         <v>18065</v>
@@ -7881,14 +7887,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>115</v>
       </c>
       <c r="K163" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1790</v>
       </c>
       <c r="M163">
         <v>18065</v>
@@ -7925,14 +7931,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>116</v>
       </c>
       <c r="K164" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>5715</v>
       </c>
       <c r="M164">
         <v>18065</v>
@@ -7969,14 +7975,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>116</v>
       </c>
       <c r="K165" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>454</v>
       </c>
       <c r="M165">
         <v>18065</v>
@@ -8013,14 +8019,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>116</v>
       </c>
       <c r="K166" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3363</v>
       </c>
       <c r="M166">
         <v>18065</v>
@@ -8057,14 +8063,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>115</v>
       </c>
       <c r="K167" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3734</v>
       </c>
       <c r="M167">
         <v>18067</v>
@@ -8101,14 +8107,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>115</v>
       </c>
       <c r="K168" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3527</v>
       </c>
       <c r="M168">
         <v>18067</v>
@@ -8145,14 +8151,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>116</v>
       </c>
       <c r="K169" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>8476</v>
       </c>
       <c r="M169">
         <v>18067</v>
@@ -8189,14 +8195,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>116</v>
       </c>
       <c r="K170" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>834</v>
       </c>
       <c r="M170">
         <v>18067</v>
@@ -8233,14 +8239,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>116</v>
       </c>
       <c r="K171" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>5947</v>
       </c>
       <c r="M171">
         <v>18067</v>
@@ -8277,14 +8283,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>115</v>
       </c>
       <c r="K172" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>1228</v>
       </c>
       <c r="M172">
         <v>18069</v>
@@ -8321,14 +8327,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>115</v>
       </c>
       <c r="K173" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>837</v>
       </c>
       <c r="M173">
         <v>18069</v>
@@ -8365,14 +8371,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>116</v>
       </c>
       <c r="K174" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>4101</v>
       </c>
       <c r="M174">
         <v>18069</v>
@@ -8409,14 +8415,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>116</v>
       </c>
       <c r="K175" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>548</v>
       </c>
       <c r="M175">
         <v>18069</v>
@@ -8453,14 +8459,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>116</v>
       </c>
       <c r="K176" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3659</v>
       </c>
       <c r="M176">
         <v>18069</v>
@@ -8497,14 +8503,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>115</v>
       </c>
       <c r="K177" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>1381</v>
       </c>
       <c r="M177">
         <v>18071</v>
@@ -8541,14 +8547,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>115</v>
       </c>
       <c r="K178" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>1468</v>
       </c>
       <c r="M178">
         <v>18071</v>
@@ -8585,14 +8591,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>116</v>
       </c>
       <c r="K179" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>5363</v>
       </c>
       <c r="M179">
         <v>18071</v>
@@ -8629,14 +8635,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>116</v>
       </c>
       <c r="K180" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>518</v>
       </c>
       <c r="M180">
         <v>18071</v>
@@ -8673,14 +8679,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>116</v>
       </c>
       <c r="K181" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>2648</v>
       </c>
       <c r="M181">
         <v>18071</v>
@@ -8717,14 +8723,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>115</v>
       </c>
       <c r="K182" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>1324</v>
       </c>
       <c r="M182">
         <v>18073</v>
@@ -8761,14 +8767,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>115</v>
       </c>
       <c r="K183" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>911</v>
       </c>
       <c r="M183">
         <v>18073</v>
@@ -8805,14 +8811,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>116</v>
       </c>
       <c r="K184" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3904</v>
       </c>
       <c r="M184">
         <v>18073</v>
@@ -8849,14 +8855,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>116</v>
       </c>
       <c r="K185" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>495</v>
       </c>
       <c r="M185">
         <v>18073</v>
@@ -8893,14 +8899,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>116</v>
       </c>
       <c r="K186" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>2121</v>
       </c>
       <c r="M186">
         <v>18073</v>
@@ -8937,14 +8943,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>115</v>
       </c>
       <c r="K187" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>705</v>
       </c>
       <c r="M187">
         <v>18075</v>
@@ -8981,14 +8987,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>115</v>
       </c>
       <c r="K188" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>693</v>
       </c>
       <c r="M188">
         <v>18075</v>
@@ -9025,14 +9031,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>116</v>
       </c>
       <c r="K189" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>2195</v>
       </c>
       <c r="M189">
         <v>18075</v>
@@ -9069,14 +9075,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>116</v>
       </c>
       <c r="K190" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="M190">
         <v>18075</v>
@@ -9113,14 +9119,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>116</v>
       </c>
       <c r="K191" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>1476</v>
       </c>
       <c r="M191">
         <v>18075</v>
@@ -9157,14 +9163,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>115</v>
       </c>
       <c r="K192" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>1466</v>
       </c>
       <c r="M192">
         <v>18077</v>
@@ -9201,14 +9207,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>115</v>
       </c>
       <c r="K193" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>1649</v>
       </c>
       <c r="M193">
         <v>18077</v>
@@ -9245,14 +9251,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>116</v>
       </c>
       <c r="K194" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>3078</v>
       </c>
       <c r="M194">
         <v>18077</v>
@@ -9289,14 +9295,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>116</v>
       </c>
       <c r="K195" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="M195">
         <v>18077</v>
@@ -9333,14 +9339,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>116</v>
       </c>
       <c r="K196" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>1585</v>
       </c>
       <c r="M196">
         <v>18077</v>
@@ -9377,14 +9383,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>115</v>
       </c>
       <c r="K197" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>922</v>
       </c>
       <c r="M197">
         <v>18079</v>
@@ -9421,14 +9427,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>115</v>
       </c>
       <c r="K198" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>838</v>
       </c>
       <c r="M198">
         <v>18079</v>
@@ -9465,14 +9471,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>116</v>
       </c>
       <c r="K199" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>3362</v>
       </c>
       <c r="M199">
         <v>18079</v>
@@ -9509,14 +9515,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>116</v>
       </c>
       <c r="K200" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="M200">
         <v>18079</v>
@@ -9553,14 +9559,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>116</v>
       </c>
       <c r="K201" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>1471</v>
       </c>
       <c r="M201">
         <v>18079</v>
@@ -9597,14 +9603,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>115</v>
       </c>
       <c r="K202" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>5481</v>
       </c>
       <c r="M202">
         <v>18081</v>
@@ -9641,14 +9647,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>115</v>
       </c>
       <c r="K203" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3687</v>
       </c>
       <c r="M203">
         <v>18081</v>
@@ -9685,14 +9691,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>116</v>
       </c>
       <c r="K204" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>17219</v>
       </c>
       <c r="M204">
         <v>18081</v>
@@ -9729,14 +9735,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>116</v>
       </c>
       <c r="K205" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2200</v>
       </c>
       <c r="M205">
         <v>18081</v>
@@ -9773,14 +9779,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>116</v>
       </c>
       <c r="K206" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>11850</v>
       </c>
       <c r="M206">
         <v>18081</v>
@@ -9817,14 +9823,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>115</v>
       </c>
       <c r="K207" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>1775</v>
       </c>
       <c r="M207">
         <v>18083</v>
@@ -9861,14 +9867,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>115</v>
       </c>
       <c r="K208" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>1743</v>
       </c>
       <c r="M208">
         <v>18083</v>
@@ -9905,14 +9911,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>116</v>
       </c>
       <c r="K209" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>4919</v>
       </c>
       <c r="M209">
         <v>18083</v>
@@ -9949,14 +9955,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>116</v>
       </c>
       <c r="K210" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="M210">
         <v>18083</v>
@@ -9993,14 +9999,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>116</v>
       </c>
       <c r="K211" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>1930</v>
       </c>
       <c r="M211">
         <v>18083</v>
@@ -10037,14 +10043,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>115</v>
       </c>
       <c r="K212" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>2121</v>
       </c>
       <c r="M212">
         <v>18085</v>
@@ -10081,14 +10087,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>115</v>
       </c>
       <c r="K213" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>1374</v>
       </c>
       <c r="M213">
         <v>18085</v>
@@ -10125,14 +10131,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>116</v>
       </c>
       <c r="K214" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>8749</v>
       </c>
       <c r="M214">
         <v>18085</v>
@@ -10169,14 +10175,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>116</v>
       </c>
       <c r="K215" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>1128</v>
       </c>
       <c r="M215">
         <v>18085</v>
@@ -10213,14 +10219,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>116</v>
       </c>
       <c r="K216" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>7699</v>
       </c>
       <c r="M216">
         <v>18085</v>
@@ -10257,14 +10263,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>115</v>
       </c>
       <c r="K217" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>579</v>
       </c>
       <c r="M217">
         <v>18087</v>
@@ -10301,14 +10307,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>115</v>
       </c>
       <c r="K218" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="M218">
         <v>18087</v>
@@ -10345,14 +10351,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>116</v>
       </c>
       <c r="K219" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>2572</v>
       </c>
       <c r="M219">
         <v>18087</v>
@@ -10389,14 +10395,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>116</v>
       </c>
       <c r="K220" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="M220">
         <v>18087</v>
@@ -10433,14 +10439,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>116</v>
       </c>
       <c r="K221" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>2374</v>
       </c>
       <c r="M221">
         <v>18087</v>
@@ -10477,14 +10483,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>115</v>
       </c>
       <c r="K222" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>7274</v>
       </c>
       <c r="M222">
         <v>18091</v>
@@ -10521,14 +10527,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>115</v>
       </c>
       <c r="K223" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>6179</v>
       </c>
       <c r="M223">
         <v>18091</v>
@@ -10565,14 +10571,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>116</v>
       </c>
       <c r="K224" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>9495</v>
       </c>
       <c r="M224">
         <v>18091</v>
@@ -10609,14 +10615,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>116</v>
       </c>
       <c r="K225" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>925</v>
       </c>
       <c r="M225">
         <v>18091</v>
@@ -10653,14 +10659,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>116</v>
       </c>
       <c r="K226" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>4435</v>
       </c>
       <c r="M226">
         <v>18091</v>
@@ -10697,14 +10703,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>115</v>
       </c>
       <c r="K227" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>32894</v>
       </c>
       <c r="M227">
         <v>18089</v>
@@ -10741,14 +10747,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>115</v>
       </c>
       <c r="K228" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>43092</v>
       </c>
       <c r="M228">
         <v>18089</v>
@@ -10785,14 +10791,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>116</v>
       </c>
       <c r="K229" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>28578</v>
       </c>
       <c r="M229">
         <v>18089</v>
@@ -10829,14 +10835,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>116</v>
       </c>
       <c r="K230" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>2975</v>
       </c>
       <c r="M230">
         <v>18089</v>
@@ -10873,14 +10879,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>116</v>
       </c>
       <c r="K231" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>12084</v>
       </c>
       <c r="M231">
         <v>18089</v>
@@ -10917,14 +10923,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>115</v>
       </c>
       <c r="K232" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>1649</v>
       </c>
       <c r="M232">
         <v>18093</v>
@@ -10961,14 +10967,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>115</v>
       </c>
       <c r="K233" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>1063</v>
       </c>
       <c r="M233">
         <v>18093</v>
@@ -11005,14 +11011,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>116</v>
       </c>
       <c r="K234" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>5972</v>
       </c>
       <c r="M234">
         <v>18093</v>
@@ -11049,14 +11055,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>116</v>
       </c>
       <c r="K235" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="M235">
         <v>18093</v>
@@ -11093,14 +11099,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>116</v>
       </c>
       <c r="K236" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>3133</v>
       </c>
       <c r="M236">
         <v>18093</v>
@@ -11137,14 +11143,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>115</v>
       </c>
       <c r="K237" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>7171</v>
       </c>
       <c r="M237">
         <v>18095</v>
@@ -11181,14 +11187,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>115</v>
       </c>
       <c r="K238" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>6636</v>
       </c>
       <c r="M238">
         <v>18095</v>
@@ -11225,14 +11231,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>116</v>
       </c>
       <c r="K239" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>12488</v>
       </c>
       <c r="M239">
         <v>18095</v>
@@ -11269,14 +11275,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>116</v>
       </c>
       <c r="K240" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>1157</v>
       </c>
       <c r="M240">
         <v>18095</v>
@@ -11313,14 +11319,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>116</v>
       </c>
       <c r="K241" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>8024</v>
       </c>
       <c r="M241">
         <v>18095</v>
@@ -11357,14 +11363,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>115</v>
       </c>
       <c r="K242" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>58800</v>
       </c>
       <c r="M242">
         <v>18097</v>
@@ -11401,14 +11407,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>115</v>
       </c>
       <c r="K243" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>59650</v>
       </c>
       <c r="M243">
         <v>18097</v>
@@ -11445,14 +11451,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>116</v>
       </c>
       <c r="K244" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>49836</v>
       </c>
       <c r="M244">
         <v>18097</v>
@@ -11489,14 +11495,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>116</v>
       </c>
       <c r="K245" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>9634</v>
       </c>
       <c r="M245">
         <v>18097</v>
@@ -11533,14 +11539,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>116</v>
       </c>
       <c r="K246" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>39558</v>
       </c>
       <c r="M246">
         <v>18097</v>
@@ -11577,14 +11583,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>115</v>
       </c>
       <c r="K247" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>1706</v>
       </c>
       <c r="M247">
         <v>18099</v>
@@ -11621,14 +11627,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>115</v>
       </c>
       <c r="K248" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>1203</v>
       </c>
       <c r="M248">
         <v>18099</v>
@@ -11665,14 +11671,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>116</v>
       </c>
       <c r="K249" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>4756</v>
       </c>
       <c r="M249">
         <v>18099</v>
@@ -11709,14 +11715,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>116</v>
       </c>
       <c r="K250" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="M250">
         <v>18099</v>
@@ -11753,14 +11759,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>116</v>
       </c>
       <c r="K251" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>3645</v>
       </c>
       <c r="M251">
         <v>18099</v>
@@ -11797,14 +11803,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>115</v>
       </c>
       <c r="K252" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="M252">
         <v>18101</v>
@@ -11841,14 +11847,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>115</v>
       </c>
       <c r="K253" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="M253">
         <v>18101</v>
@@ -11885,14 +11891,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>116</v>
       </c>
       <c r="K254" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>1399</v>
       </c>
       <c r="M254">
         <v>18101</v>
@@ -11929,14 +11935,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>116</v>
       </c>
       <c r="K255" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M255">
         <v>18101</v>
@@ -11973,14 +11979,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>116</v>
       </c>
       <c r="K256" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>744</v>
       </c>
       <c r="M256">
         <v>18101</v>
@@ -12017,14 +12023,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>115</v>
       </c>
       <c r="K257" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>988</v>
       </c>
       <c r="M257">
         <v>18103</v>
@@ -12061,14 +12067,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>115</v>
       </c>
       <c r="K258" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>721</v>
       </c>
       <c r="M258">
         <v>18103</v>
@@ -12105,14 +12111,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>116</v>
       </c>
       <c r="K259" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3287</v>
       </c>
       <c r="M259">
         <v>18103</v>
@@ -12149,14 +12155,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>116</v>
       </c>
       <c r="K260" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="M260">
         <v>18103</v>
@@ -12193,14 +12199,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>116</v>
       </c>
       <c r="K261" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>2410</v>
       </c>
       <c r="M261">
         <v>18103</v>
@@ -12237,14 +12243,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>115</v>
       </c>
       <c r="K262" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>15167</v>
       </c>
       <c r="M262">
         <v>18105</v>
@@ -12281,14 +12287,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>115</v>
       </c>
       <c r="K263" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>8064</v>
       </c>
       <c r="M263">
         <v>18105</v>
@@ -12325,14 +12331,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>116</v>
       </c>
       <c r="K264" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>7260</v>
       </c>
       <c r="M264">
         <v>18105</v>
@@ -12369,14 +12375,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>116</v>
       </c>
       <c r="K265" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>1684</v>
       </c>
       <c r="M265">
         <v>18105</v>
@@ -12413,14 +12419,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>116</v>
       </c>
       <c r="K266" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>5506</v>
       </c>
       <c r="M266">
         <v>18105</v>
@@ -12457,14 +12463,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>115</v>
       </c>
       <c r="K267" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>967</v>
       </c>
       <c r="M267">
         <v>18107</v>
@@ -12501,14 +12507,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>115</v>
       </c>
       <c r="K268" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>716</v>
       </c>
       <c r="M268">
         <v>18107</v>
@@ -12545,14 +12551,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>116</v>
       </c>
       <c r="K269" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>4413</v>
       </c>
       <c r="M269">
         <v>18107</v>
@@ -12589,14 +12595,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>116</v>
       </c>
       <c r="K270" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>633</v>
       </c>
       <c r="M270">
         <v>18107</v>
@@ -12633,14 +12639,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>116</v>
       </c>
       <c r="K271" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>2913</v>
       </c>
       <c r="M271">
         <v>18107</v>
@@ -12677,14 +12683,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>115</v>
       </c>
       <c r="K272" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>2159</v>
       </c>
       <c r="M272">
         <v>18109</v>
@@ -12721,14 +12727,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>115</v>
       </c>
       <c r="K273" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>1601</v>
       </c>
       <c r="M273">
         <v>18109</v>
@@ -12765,14 +12771,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>116</v>
       </c>
       <c r="K274" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>10236</v>
       </c>
       <c r="M274">
         <v>18109</v>
@@ -12809,14 +12815,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>116</v>
       </c>
       <c r="K275" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>942</v>
       </c>
       <c r="M275">
         <v>18109</v>
@@ -12853,14 +12859,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>116</v>
       </c>
       <c r="K276" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>5886</v>
       </c>
       <c r="M276">
         <v>18109</v>
@@ -12897,14 +12903,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>115</v>
       </c>
       <c r="K277" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="M277">
         <v>18111</v>
@@ -12941,14 +12947,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>115</v>
       </c>
       <c r="K278" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="M278">
         <v>18111</v>
@@ -12985,14 +12991,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>116</v>
       </c>
       <c r="K279" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>1815</v>
       </c>
       <c r="M279">
         <v>18111</v>
@@ -13029,14 +13035,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>116</v>
       </c>
       <c r="K280" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M280">
         <v>18111</v>
@@ -13073,14 +13079,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>116</v>
       </c>
       <c r="K281" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>726</v>
       </c>
       <c r="M281">
         <v>18111</v>
@@ -13117,14 +13123,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>115</v>
       </c>
       <c r="K282" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="M282">
         <v>18113</v>
@@ -13161,14 +13167,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>115</v>
       </c>
       <c r="K283" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>1135</v>
       </c>
       <c r="M283">
         <v>18113</v>
@@ -13205,14 +13211,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>116</v>
       </c>
       <c r="K284" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>4423</v>
       </c>
       <c r="M284">
         <v>18113</v>
@@ -13249,14 +13255,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>116</v>
       </c>
       <c r="K285" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>579</v>
       </c>
       <c r="M285">
         <v>18113</v>
@@ -13293,14 +13299,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>116</v>
       </c>
       <c r="K286" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>3707</v>
       </c>
       <c r="M286">
         <v>18113</v>
@@ -13337,14 +13343,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>115</v>
       </c>
       <c r="K287" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M287">
         <v>18115</v>
@@ -13381,14 +13387,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>115</v>
       </c>
       <c r="K288" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="M288">
         <v>18115</v>
@@ -13425,14 +13431,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>116</v>
       </c>
       <c r="K289" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>787</v>
       </c>
       <c r="M289">
         <v>18115</v>
@@ -13469,14 +13475,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>116</v>
       </c>
       <c r="K290" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="M290">
         <v>18115</v>
@@ -13513,14 +13519,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>116</v>
       </c>
       <c r="K291" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="M291">
         <v>18115</v>
@@ -13557,14 +13563,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>115</v>
       </c>
       <c r="K292" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>662</v>
       </c>
       <c r="M292">
         <v>18117</v>
@@ -13601,14 +13607,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>115</v>
       </c>
       <c r="K293" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>604</v>
       </c>
       <c r="M293">
         <v>18117</v>
@@ -13645,14 +13651,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>116</v>
       </c>
       <c r="K294" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>2575</v>
       </c>
       <c r="M294">
         <v>18117</v>
@@ -13689,14 +13695,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>116</v>
       </c>
       <c r="K295" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="M295">
         <v>18117</v>
@@ -13733,14 +13739,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>116</v>
       </c>
       <c r="K296" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>1224</v>
       </c>
       <c r="M296">
         <v>18117</v>
@@ -13777,14 +13783,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>115</v>
       </c>
       <c r="K297" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="M297">
         <v>18119</v>
@@ -13821,14 +13827,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>115</v>
       </c>
       <c r="K298" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="M298">
         <v>18119</v>
@@ -13865,14 +13871,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>116</v>
       </c>
       <c r="K299" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>2680</v>
       </c>
       <c r="M299">
         <v>18119</v>
@@ -13909,14 +13915,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>116</v>
       </c>
       <c r="K300" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="M300">
         <v>18119</v>
@@ -13953,14 +13959,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>116</v>
       </c>
       <c r="K301" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>1218</v>
       </c>
       <c r="M301">
         <v>18119</v>
@@ -13997,14 +14003,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>115</v>
       </c>
       <c r="K302" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="M302">
         <v>18121</v>
@@ -14041,14 +14047,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>115</v>
       </c>
       <c r="K303" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="M303">
         <v>18121</v>
@@ -14085,14 +14091,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>116</v>
       </c>
       <c r="K304" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="M304">
         <v>18121</v>
@@ -14129,14 +14135,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>116</v>
       </c>
       <c r="K305" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="M305">
         <v>18121</v>
@@ -14173,14 +14179,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>116</v>
       </c>
       <c r="K306" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>922</v>
       </c>
       <c r="M306">
         <v>18121</v>
@@ -14217,14 +14223,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>115</v>
       </c>
       <c r="K307" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>1115</v>
       </c>
       <c r="M307">
         <v>18123</v>
@@ -14261,14 +14267,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>115</v>
       </c>
       <c r="K308" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>1359</v>
       </c>
       <c r="M308">
         <v>18123</v>
@@ -14305,14 +14311,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>116</v>
       </c>
       <c r="K309" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>1643</v>
       </c>
       <c r="M309">
         <v>18123</v>
@@ -14349,14 +14355,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>116</v>
       </c>
       <c r="K310" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="M310">
         <v>18123</v>
@@ -14393,14 +14399,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>116</v>
       </c>
       <c r="K311" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>607</v>
       </c>
       <c r="M311">
         <v>18123</v>
@@ -14437,14 +14443,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>115</v>
       </c>
       <c r="K312" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>626</v>
       </c>
       <c r="M312">
         <v>18125</v>
@@ -14481,14 +14487,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>115</v>
       </c>
       <c r="K313" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>527</v>
       </c>
       <c r="M313">
         <v>18125</v>
@@ -14525,14 +14531,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>116</v>
       </c>
       <c r="K314" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>1650</v>
       </c>
       <c r="M314">
         <v>18125</v>
@@ -14569,14 +14575,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>116</v>
       </c>
       <c r="K315" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="M315">
         <v>18125</v>
@@ -14613,14 +14619,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>116</v>
       </c>
       <c r="K316" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>822</v>
       </c>
       <c r="M316">
         <v>18125</v>
@@ -14657,14 +14663,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>115</v>
       </c>
       <c r="K317" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>13345</v>
       </c>
       <c r="M317">
         <v>18127</v>
@@ -14701,14 +14707,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>115</v>
       </c>
       <c r="K318" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>9467</v>
       </c>
       <c r="M318">
         <v>18127</v>
@@ -14745,14 +14751,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>116</v>
       </c>
       <c r="K319" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>16195</v>
       </c>
       <c r="M319">
         <v>18127</v>
@@ -14789,14 +14795,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>116</v>
       </c>
       <c r="K320" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>2360</v>
       </c>
       <c r="M320">
         <v>18127</v>
@@ -14833,14 +14839,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>116</v>
       </c>
       <c r="K321" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>7074</v>
       </c>
       <c r="M321">
         <v>18127</v>
@@ -14877,14 +14883,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>115</v>
       </c>
       <c r="K322" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>1379</v>
       </c>
       <c r="M322">
         <v>18129</v>
@@ -14921,14 +14927,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>115</v>
       </c>
       <c r="K323" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>1118</v>
       </c>
       <c r="M323">
         <v>18129</v>
@@ -14965,14 +14971,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>116</v>
       </c>
       <c r="K324" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>3160</v>
       </c>
       <c r="M324">
         <v>18129</v>
@@ -15009,14 +15015,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>116</v>
       </c>
       <c r="K325" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="M325">
         <v>18129</v>
@@ -15053,14 +15059,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>116</v>
       </c>
       <c r="K326" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>1697</v>
       </c>
       <c r="M326">
         <v>18129</v>
@@ -15097,14 +15103,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327">
-        <v>3</v>
+      <c r="J327" t="s">
+        <v>115</v>
       </c>
       <c r="K327" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="M327">
         <v>18131</v>
@@ -15141,14 +15147,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>3</v>
+      <c r="J328" t="s">
+        <v>115</v>
       </c>
       <c r="K328" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="M328">
         <v>18131</v>
@@ -15185,14 +15191,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>3</v>
+      <c r="J329" t="s">
+        <v>116</v>
       </c>
       <c r="K329" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>1669</v>
       </c>
       <c r="M329">
         <v>18131</v>
@@ -15229,14 +15235,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>3</v>
+      <c r="J330" t="s">
+        <v>116</v>
       </c>
       <c r="K330" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="M330">
         <v>18131</v>
@@ -15273,14 +15279,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331">
-        <v>3</v>
+      <c r="J331" t="s">
+        <v>116</v>
       </c>
       <c r="K331" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>1043</v>
       </c>
       <c r="M331">
         <v>18131</v>
@@ -15317,14 +15323,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-      <c r="J332">
-        <v>3</v>
+      <c r="J332" t="s">
+        <v>115</v>
       </c>
       <c r="K332" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>1190</v>
       </c>
       <c r="M332">
         <v>18133</v>
@@ -15361,14 +15367,14 @@
       <c r="I333">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>3</v>
+      <c r="J333" t="s">
+        <v>115</v>
       </c>
       <c r="K333" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>975</v>
       </c>
       <c r="M333">
         <v>18133</v>
@@ -15405,14 +15411,14 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>3</v>
+      <c r="J334" t="s">
+        <v>116</v>
       </c>
       <c r="K334" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>4088</v>
       </c>
       <c r="M334">
         <v>18133</v>
@@ -15449,14 +15455,14 @@
       <c r="I335">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3</v>
+      <c r="J335" t="s">
+        <v>116</v>
       </c>
       <c r="K335" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="M335">
         <v>18133</v>
@@ -15493,14 +15499,14 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>3</v>
+      <c r="J336" t="s">
+        <v>116</v>
       </c>
       <c r="K336" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L336">
-        <v>4</v>
+        <v>2738</v>
       </c>
       <c r="M336">
         <v>18133</v>
@@ -15537,14 +15543,14 @@
       <c r="I337">
         <v>1</v>
       </c>
-      <c r="J337">
-        <v>3</v>
+      <c r="J337" t="s">
+        <v>115</v>
       </c>
       <c r="K337" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>888</v>
       </c>
       <c r="M337">
         <v>18135</v>
@@ -15581,14 +15587,14 @@
       <c r="I338">
         <v>1</v>
       </c>
-      <c r="J338">
-        <v>3</v>
+      <c r="J338" t="s">
+        <v>115</v>
       </c>
       <c r="K338" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L338">
-        <v>4</v>
+        <v>706</v>
       </c>
       <c r="M338">
         <v>18135</v>
@@ -15625,14 +15631,14 @@
       <c r="I339">
         <v>1</v>
       </c>
-      <c r="J339">
-        <v>3</v>
+      <c r="J339" t="s">
+        <v>116</v>
       </c>
       <c r="K339" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>2940</v>
       </c>
       <c r="M339">
         <v>18135</v>
@@ -15669,14 +15675,14 @@
       <c r="I340">
         <v>1</v>
       </c>
-      <c r="J340">
-        <v>3</v>
+      <c r="J340" t="s">
+        <v>116</v>
       </c>
       <c r="K340" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="M340">
         <v>18135</v>
@@ -15713,14 +15719,14 @@
       <c r="I341">
         <v>1</v>
       </c>
-      <c r="J341">
-        <v>3</v>
+      <c r="J341" t="s">
+        <v>116</v>
       </c>
       <c r="K341" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>1841</v>
       </c>
       <c r="M341">
         <v>18135</v>
@@ -15757,14 +15763,14 @@
       <c r="I342">
         <v>1</v>
       </c>
-      <c r="J342">
-        <v>3</v>
+      <c r="J342" t="s">
+        <v>115</v>
       </c>
       <c r="K342" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>691</v>
       </c>
       <c r="M342">
         <v>18137</v>
@@ -15801,14 +15807,14 @@
       <c r="I343">
         <v>1</v>
       </c>
-      <c r="J343">
-        <v>3</v>
+      <c r="J343" t="s">
+        <v>115</v>
       </c>
       <c r="K343" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>675</v>
       </c>
       <c r="M343">
         <v>18137</v>
@@ -15845,14 +15851,14 @@
       <c r="I344">
         <v>1</v>
       </c>
-      <c r="J344">
-        <v>3</v>
+      <c r="J344" t="s">
+        <v>116</v>
       </c>
       <c r="K344" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L344">
-        <v>4</v>
+        <v>3695</v>
       </c>
       <c r="M344">
         <v>18137</v>
@@ -15889,14 +15895,14 @@
       <c r="I345">
         <v>1</v>
       </c>
-      <c r="J345">
-        <v>3</v>
+      <c r="J345" t="s">
+        <v>116</v>
       </c>
       <c r="K345" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>642</v>
       </c>
       <c r="M345">
         <v>18137</v>
@@ -15933,14 +15939,14 @@
       <c r="I346">
         <v>1</v>
       </c>
-      <c r="J346">
-        <v>3</v>
+      <c r="J346" t="s">
+        <v>116</v>
       </c>
       <c r="K346" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>1443</v>
       </c>
       <c r="M346">
         <v>18137</v>
@@ -15977,14 +15983,14 @@
       <c r="I347">
         <v>1</v>
       </c>
-      <c r="J347">
-        <v>3</v>
+      <c r="J347" t="s">
+        <v>115</v>
       </c>
       <c r="K347" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>562</v>
       </c>
       <c r="M347">
         <v>18139</v>
@@ -16021,14 +16027,14 @@
       <c r="I348">
         <v>1</v>
       </c>
-      <c r="J348">
-        <v>3</v>
+      <c r="J348" t="s">
+        <v>115</v>
       </c>
       <c r="K348" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="M348">
         <v>18139</v>
@@ -16065,14 +16071,14 @@
       <c r="I349">
         <v>1</v>
       </c>
-      <c r="J349">
-        <v>3</v>
+      <c r="J349" t="s">
+        <v>116</v>
       </c>
       <c r="K349" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L349">
-        <v>4</v>
+        <v>2363</v>
       </c>
       <c r="M349">
         <v>18139</v>
@@ -16109,14 +16115,14 @@
       <c r="I350">
         <v>1</v>
       </c>
-      <c r="J350">
-        <v>3</v>
+      <c r="J350" t="s">
+        <v>116</v>
       </c>
       <c r="K350" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="M350">
         <v>18139</v>
@@ -16153,14 +16159,14 @@
       <c r="I351">
         <v>1</v>
       </c>
-      <c r="J351">
-        <v>3</v>
+      <c r="J351" t="s">
+        <v>116</v>
       </c>
       <c r="K351" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>1458</v>
       </c>
       <c r="M351">
         <v>18139</v>
@@ -16197,14 +16203,14 @@
       <c r="I352">
         <v>1</v>
       </c>
-      <c r="J352">
-        <v>3</v>
+      <c r="J352" t="s">
+        <v>115</v>
       </c>
       <c r="K352" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>1289</v>
       </c>
       <c r="M352">
         <v>18143</v>
@@ -16241,14 +16247,14 @@
       <c r="I353">
         <v>1</v>
       </c>
-      <c r="J353">
-        <v>3</v>
+      <c r="J353" t="s">
+        <v>115</v>
       </c>
       <c r="K353" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L353">
-        <v>4</v>
+        <v>1589</v>
       </c>
       <c r="M353">
         <v>18143</v>
@@ -16285,14 +16291,14 @@
       <c r="I354">
         <v>1</v>
       </c>
-      <c r="J354">
-        <v>3</v>
+      <c r="J354" t="s">
+        <v>116</v>
       </c>
       <c r="K354" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L354">
-        <v>4</v>
+        <v>1930</v>
       </c>
       <c r="M354">
         <v>18143</v>
@@ -16329,14 +16335,14 @@
       <c r="I355">
         <v>1</v>
       </c>
-      <c r="J355">
-        <v>3</v>
+      <c r="J355" t="s">
+        <v>116</v>
       </c>
       <c r="K355" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L355">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="M355">
         <v>18143</v>
@@ -16373,14 +16379,14 @@
       <c r="I356">
         <v>1</v>
       </c>
-      <c r="J356">
-        <v>3</v>
+      <c r="J356" t="s">
+        <v>116</v>
       </c>
       <c r="K356" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L356">
-        <v>4</v>
+        <v>868</v>
       </c>
       <c r="M356">
         <v>18143</v>
@@ -16417,14 +16423,14 @@
       <c r="I357">
         <v>1</v>
       </c>
-      <c r="J357">
-        <v>3</v>
+      <c r="J357" t="s">
+        <v>115</v>
       </c>
       <c r="K357" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L357">
-        <v>4</v>
+        <v>1498</v>
       </c>
       <c r="M357">
         <v>18145</v>
@@ -16461,14 +16467,14 @@
       <c r="I358">
         <v>1</v>
       </c>
-      <c r="J358">
-        <v>3</v>
+      <c r="J358" t="s">
+        <v>115</v>
       </c>
       <c r="K358" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>1216</v>
       </c>
       <c r="M358">
         <v>18145</v>
@@ -16505,14 +16511,14 @@
       <c r="I359">
         <v>1</v>
       </c>
-      <c r="J359">
-        <v>3</v>
+      <c r="J359" t="s">
+        <v>116</v>
       </c>
       <c r="K359" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L359">
-        <v>4</v>
+        <v>5045</v>
       </c>
       <c r="M359">
         <v>18145</v>
@@ -16549,14 +16555,14 @@
       <c r="I360">
         <v>1</v>
       </c>
-      <c r="J360">
-        <v>3</v>
+      <c r="J360" t="s">
+        <v>116</v>
       </c>
       <c r="K360" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="M360">
         <v>18145</v>
@@ -16593,14 +16599,14 @@
       <c r="I361">
         <v>1</v>
       </c>
-      <c r="J361">
-        <v>3</v>
+      <c r="J361" t="s">
+        <v>116</v>
       </c>
       <c r="K361" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>3191</v>
       </c>
       <c r="M361">
         <v>18145</v>
@@ -16637,14 +16643,14 @@
       <c r="I362">
         <v>1</v>
       </c>
-      <c r="J362">
-        <v>3</v>
+      <c r="J362" t="s">
+        <v>115</v>
       </c>
       <c r="K362" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>1031</v>
       </c>
       <c r="M362">
         <v>18147</v>
@@ -16681,14 +16687,14 @@
       <c r="I363">
         <v>1</v>
       </c>
-      <c r="J363">
-        <v>3</v>
+      <c r="J363" t="s">
+        <v>115</v>
       </c>
       <c r="K363" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>1061</v>
       </c>
       <c r="M363">
         <v>18147</v>
@@ -16725,14 +16731,14 @@
       <c r="I364">
         <v>1</v>
       </c>
-      <c r="J364">
-        <v>3</v>
+      <c r="J364" t="s">
+        <v>116</v>
       </c>
       <c r="K364" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L364">
-        <v>4</v>
+        <v>2351</v>
       </c>
       <c r="M364">
         <v>18147</v>
@@ -16769,14 +16775,14 @@
       <c r="I365">
         <v>1</v>
       </c>
-      <c r="J365">
-        <v>3</v>
+      <c r="J365" t="s">
+        <v>116</v>
       </c>
       <c r="K365" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="M365">
         <v>18147</v>
@@ -16813,14 +16819,14 @@
       <c r="I366">
         <v>1</v>
       </c>
-      <c r="J366">
-        <v>3</v>
+      <c r="J366" t="s">
+        <v>116</v>
       </c>
       <c r="K366" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L366">
-        <v>4</v>
+        <v>1379</v>
       </c>
       <c r="M366">
         <v>18147</v>
@@ -16857,14 +16863,14 @@
       <c r="I367">
         <v>1</v>
       </c>
-      <c r="J367">
-        <v>3</v>
+      <c r="J367" t="s">
+        <v>115</v>
       </c>
       <c r="K367" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>17356</v>
       </c>
       <c r="M367">
         <v>18141</v>
@@ -16901,14 +16907,14 @@
       <c r="I368">
         <v>1</v>
       </c>
-      <c r="J368">
-        <v>3</v>
+      <c r="J368" t="s">
+        <v>115</v>
       </c>
       <c r="K368" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>15515</v>
       </c>
       <c r="M368">
         <v>18141</v>
@@ -16945,14 +16951,14 @@
       <c r="I369">
         <v>1</v>
       </c>
-      <c r="J369">
-        <v>3</v>
+      <c r="J369" t="s">
+        <v>116</v>
       </c>
       <c r="K369" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>19060</v>
       </c>
       <c r="M369">
         <v>18141</v>
@@ -16989,14 +16995,14 @@
       <c r="I370">
         <v>1</v>
       </c>
-      <c r="J370">
-        <v>3</v>
+      <c r="J370" t="s">
+        <v>116</v>
       </c>
       <c r="K370" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>2569</v>
       </c>
       <c r="M370">
         <v>18141</v>
@@ -17033,14 +17039,14 @@
       <c r="I371">
         <v>1</v>
       </c>
-      <c r="J371">
-        <v>3</v>
+      <c r="J371" t="s">
+        <v>116</v>
       </c>
       <c r="K371" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L371">
-        <v>4</v>
+        <v>15240</v>
       </c>
       <c r="M371">
         <v>18141</v>
@@ -17077,14 +17083,14 @@
       <c r="I372">
         <v>1</v>
       </c>
-      <c r="J372">
-        <v>3</v>
+      <c r="J372" t="s">
+        <v>115</v>
       </c>
       <c r="K372" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>1278</v>
       </c>
       <c r="M372">
         <v>18149</v>
@@ -17121,14 +17127,14 @@
       <c r="I373">
         <v>1</v>
       </c>
-      <c r="J373">
-        <v>3</v>
+      <c r="J373" t="s">
+        <v>115</v>
       </c>
       <c r="K373" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L373">
-        <v>4</v>
+        <v>1056</v>
       </c>
       <c r="M373">
         <v>18149</v>
@@ -17165,14 +17171,14 @@
       <c r="I374">
         <v>1</v>
       </c>
-      <c r="J374">
-        <v>3</v>
+      <c r="J374" t="s">
+        <v>116</v>
       </c>
       <c r="K374" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L374">
-        <v>4</v>
+        <v>2457</v>
       </c>
       <c r="M374">
         <v>18149</v>
@@ -17209,14 +17215,14 @@
       <c r="I375">
         <v>1</v>
       </c>
-      <c r="J375">
-        <v>3</v>
+      <c r="J375" t="s">
+        <v>116</v>
       </c>
       <c r="K375" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="M375">
         <v>18149</v>
@@ -17253,14 +17259,14 @@
       <c r="I376">
         <v>1</v>
       </c>
-      <c r="J376">
-        <v>3</v>
+      <c r="J376" t="s">
+        <v>116</v>
       </c>
       <c r="K376" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>1073</v>
       </c>
       <c r="M376">
         <v>18149</v>
@@ -17297,14 +17303,14 @@
       <c r="I377">
         <v>1</v>
       </c>
-      <c r="J377">
-        <v>3</v>
+      <c r="J377" t="s">
+        <v>115</v>
       </c>
       <c r="K377" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>1121</v>
       </c>
       <c r="M377">
         <v>18151</v>
@@ -17341,14 +17347,14 @@
       <c r="I378">
         <v>1</v>
       </c>
-      <c r="J378">
-        <v>3</v>
+      <c r="J378" t="s">
+        <v>115</v>
       </c>
       <c r="K378" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>982</v>
       </c>
       <c r="M378">
         <v>18151</v>
@@ -17385,14 +17391,14 @@
       <c r="I379">
         <v>1</v>
       </c>
-      <c r="J379">
-        <v>3</v>
+      <c r="J379" t="s">
+        <v>116</v>
       </c>
       <c r="K379" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>3974</v>
       </c>
       <c r="M379">
         <v>18151</v>
@@ -17429,14 +17435,14 @@
       <c r="I380">
         <v>1</v>
       </c>
-      <c r="J380">
-        <v>3</v>
+      <c r="J380" t="s">
+        <v>116</v>
       </c>
       <c r="K380" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L380">
-        <v>4</v>
+        <v>615</v>
       </c>
       <c r="M380">
         <v>18151</v>
@@ -17473,14 +17479,14 @@
       <c r="I381">
         <v>1</v>
       </c>
-      <c r="J381">
-        <v>3</v>
+      <c r="J381" t="s">
+        <v>116</v>
       </c>
       <c r="K381" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>2501</v>
       </c>
       <c r="M381">
         <v>18151</v>
@@ -17517,14 +17523,14 @@
       <c r="I382">
         <v>1</v>
       </c>
-      <c r="J382">
-        <v>3</v>
+      <c r="J382" t="s">
+        <v>115</v>
       </c>
       <c r="K382" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>1455</v>
       </c>
       <c r="M382">
         <v>18153</v>
@@ -17561,14 +17567,14 @@
       <c r="I383">
         <v>1</v>
       </c>
-      <c r="J383">
-        <v>3</v>
+      <c r="J383" t="s">
+        <v>115</v>
       </c>
       <c r="K383" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L383">
-        <v>4</v>
+        <v>1059</v>
       </c>
       <c r="M383">
         <v>18153</v>
@@ -17605,14 +17611,14 @@
       <c r="I384">
         <v>1</v>
       </c>
-      <c r="J384">
-        <v>3</v>
+      <c r="J384" t="s">
+        <v>116</v>
       </c>
       <c r="K384" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L384">
-        <v>4</v>
+        <v>2380</v>
       </c>
       <c r="M384">
         <v>18153</v>
@@ -17649,14 +17655,14 @@
       <c r="I385">
         <v>1</v>
       </c>
-      <c r="J385">
-        <v>3</v>
+      <c r="J385" t="s">
+        <v>116</v>
       </c>
       <c r="K385" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L385">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M385">
         <v>18153</v>
@@ -17693,14 +17699,14 @@
       <c r="I386">
         <v>1</v>
       </c>
-      <c r="J386">
-        <v>3</v>
+      <c r="J386" t="s">
+        <v>116</v>
       </c>
       <c r="K386" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L386">
-        <v>4</v>
+        <v>945</v>
       </c>
       <c r="M386">
         <v>18153</v>
@@ -17737,14 +17743,14 @@
       <c r="I387">
         <v>1</v>
       </c>
-      <c r="J387">
-        <v>3</v>
+      <c r="J387" t="s">
+        <v>115</v>
       </c>
       <c r="K387" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="M387">
         <v>18155</v>
@@ -17781,14 +17787,14 @@
       <c r="I388">
         <v>1</v>
       </c>
-      <c r="J388">
-        <v>3</v>
+      <c r="J388" t="s">
+        <v>115</v>
       </c>
       <c r="K388" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="M388">
         <v>18155</v>
@@ -17825,14 +17831,14 @@
       <c r="I389">
         <v>1</v>
       </c>
-      <c r="J389">
-        <v>3</v>
+      <c r="J389" t="s">
+        <v>116</v>
       </c>
       <c r="K389" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L389">
-        <v>4</v>
+        <v>859</v>
       </c>
       <c r="M389">
         <v>18155</v>
@@ -17869,14 +17875,14 @@
       <c r="I390">
         <v>1</v>
       </c>
-      <c r="J390">
-        <v>3</v>
+      <c r="J390" t="s">
+        <v>116</v>
       </c>
       <c r="K390" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L390">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="M390">
         <v>18155</v>
@@ -17913,14 +17919,14 @@
       <c r="I391">
         <v>1</v>
       </c>
-      <c r="J391">
-        <v>3</v>
+      <c r="J391" t="s">
+        <v>116</v>
       </c>
       <c r="K391" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L391">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="M391">
         <v>18155</v>
@@ -17957,14 +17963,14 @@
       <c r="I392">
         <v>1</v>
       </c>
-      <c r="J392">
-        <v>3</v>
+      <c r="J392" t="s">
+        <v>115</v>
       </c>
       <c r="K392" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L392">
-        <v>4</v>
+        <v>9581</v>
       </c>
       <c r="M392">
         <v>18157</v>
@@ -18001,14 +18007,14 @@
       <c r="I393">
         <v>1</v>
       </c>
-      <c r="J393">
-        <v>3</v>
+      <c r="J393" t="s">
+        <v>115</v>
       </c>
       <c r="K393" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L393">
-        <v>4</v>
+        <v>5999</v>
       </c>
       <c r="M393">
         <v>18157</v>
@@ -18045,14 +18051,14 @@
       <c r="I394">
         <v>1</v>
       </c>
-      <c r="J394">
-        <v>3</v>
+      <c r="J394" t="s">
+        <v>116</v>
       </c>
       <c r="K394" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>10297</v>
       </c>
       <c r="M394">
         <v>18157</v>
@@ -18089,14 +18095,14 @@
       <c r="I395">
         <v>1</v>
       </c>
-      <c r="J395">
-        <v>3</v>
+      <c r="J395" t="s">
+        <v>116</v>
       </c>
       <c r="K395" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L395">
-        <v>4</v>
+        <v>2706</v>
       </c>
       <c r="M395">
         <v>18157</v>
@@ -18133,14 +18139,14 @@
       <c r="I396">
         <v>1</v>
       </c>
-      <c r="J396">
-        <v>3</v>
+      <c r="J396" t="s">
+        <v>116</v>
       </c>
       <c r="K396" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L396">
-        <v>4</v>
+        <v>9461</v>
       </c>
       <c r="M396">
         <v>18157</v>
@@ -18177,14 +18183,14 @@
       <c r="I397">
         <v>1</v>
       </c>
-      <c r="J397">
-        <v>3</v>
+      <c r="J397" t="s">
+        <v>115</v>
       </c>
       <c r="K397" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L397">
-        <v>4</v>
+        <v>607</v>
       </c>
       <c r="M397">
         <v>18159</v>
@@ -18221,14 +18227,14 @@
       <c r="I398">
         <v>1</v>
       </c>
-      <c r="J398">
-        <v>3</v>
+      <c r="J398" t="s">
+        <v>115</v>
       </c>
       <c r="K398" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L398">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="M398">
         <v>18159</v>
@@ -18265,14 +18271,14 @@
       <c r="I399">
         <v>1</v>
       </c>
-      <c r="J399">
-        <v>3</v>
+      <c r="J399" t="s">
+        <v>116</v>
       </c>
       <c r="K399" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L399">
-        <v>4</v>
+        <v>2270</v>
       </c>
       <c r="M399">
         <v>18159</v>
@@ -18309,14 +18315,14 @@
       <c r="I400">
         <v>1</v>
       </c>
-      <c r="J400">
-        <v>3</v>
+      <c r="J400" t="s">
+        <v>116</v>
       </c>
       <c r="K400" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L400">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="M400">
         <v>18159</v>
@@ -18353,14 +18359,14 @@
       <c r="I401">
         <v>1</v>
       </c>
-      <c r="J401">
-        <v>3</v>
+      <c r="J401" t="s">
+        <v>116</v>
       </c>
       <c r="K401" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L401">
-        <v>4</v>
+        <v>1632</v>
       </c>
       <c r="M401">
         <v>18159</v>
@@ -18397,14 +18403,14 @@
       <c r="I402">
         <v>1</v>
       </c>
-      <c r="J402">
-        <v>3</v>
+      <c r="J402" t="s">
+        <v>115</v>
       </c>
       <c r="K402" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L402">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M402">
         <v>18161</v>
@@ -18441,14 +18447,14 @@
       <c r="I403">
         <v>1</v>
       </c>
-      <c r="J403">
-        <v>3</v>
+      <c r="J403" t="s">
+        <v>115</v>
       </c>
       <c r="K403" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L403">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M403">
         <v>18161</v>
@@ -18485,14 +18491,14 @@
       <c r="I404">
         <v>1</v>
       </c>
-      <c r="J404">
-        <v>3</v>
+      <c r="J404" t="s">
+        <v>116</v>
       </c>
       <c r="K404" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L404">
-        <v>4</v>
+        <v>876</v>
       </c>
       <c r="M404">
         <v>18161</v>
@@ -18529,14 +18535,14 @@
       <c r="I405">
         <v>1</v>
       </c>
-      <c r="J405">
-        <v>3</v>
+      <c r="J405" t="s">
+        <v>116</v>
       </c>
       <c r="K405" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L405">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="M405">
         <v>18161</v>
@@ -18573,14 +18579,14 @@
       <c r="I406">
         <v>1</v>
       </c>
-      <c r="J406">
-        <v>3</v>
+      <c r="J406" t="s">
+        <v>116</v>
       </c>
       <c r="K406" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L406">
-        <v>4</v>
+        <v>366</v>
       </c>
       <c r="M406">
         <v>18161</v>
@@ -18617,14 +18623,14 @@
       <c r="I407">
         <v>1</v>
       </c>
-      <c r="J407">
-        <v>3</v>
+      <c r="J407" t="s">
+        <v>115</v>
       </c>
       <c r="K407" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L407">
-        <v>4</v>
+        <v>9133</v>
       </c>
       <c r="M407">
         <v>18163</v>
@@ -18661,14 +18667,14 @@
       <c r="I408">
         <v>1</v>
       </c>
-      <c r="J408">
-        <v>3</v>
+      <c r="J408" t="s">
+        <v>115</v>
       </c>
       <c r="K408" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L408">
-        <v>4</v>
+        <v>7680</v>
       </c>
       <c r="M408">
         <v>18163</v>
@@ -18705,14 +18711,14 @@
       <c r="I409">
         <v>1</v>
       </c>
-      <c r="J409">
-        <v>3</v>
+      <c r="J409" t="s">
+        <v>116</v>
       </c>
       <c r="K409" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L409">
-        <v>4</v>
+        <v>14545</v>
       </c>
       <c r="M409">
         <v>18163</v>
@@ -18749,14 +18755,14 @@
       <c r="I410">
         <v>1</v>
       </c>
-      <c r="J410">
-        <v>3</v>
+      <c r="J410" t="s">
+        <v>116</v>
       </c>
       <c r="K410" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L410">
-        <v>4</v>
+        <v>2169</v>
       </c>
       <c r="M410">
         <v>18163</v>
@@ -18793,14 +18799,14 @@
       <c r="I411">
         <v>1</v>
       </c>
-      <c r="J411">
-        <v>3</v>
+      <c r="J411" t="s">
+        <v>116</v>
       </c>
       <c r="K411" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L411">
-        <v>4</v>
+        <v>9290</v>
       </c>
       <c r="M411">
         <v>18163</v>
@@ -18837,14 +18843,14 @@
       <c r="I412">
         <v>1</v>
       </c>
-      <c r="J412">
-        <v>3</v>
+      <c r="J412" t="s">
+        <v>115</v>
       </c>
       <c r="K412" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L412">
-        <v>4</v>
+        <v>1310</v>
       </c>
       <c r="M412">
         <v>18165</v>
@@ -18881,14 +18887,14 @@
       <c r="I413">
         <v>1</v>
       </c>
-      <c r="J413">
-        <v>3</v>
+      <c r="J413" t="s">
+        <v>115</v>
       </c>
       <c r="K413" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L413">
-        <v>4</v>
+        <v>1075</v>
       </c>
       <c r="M413">
         <v>18165</v>
@@ -18925,14 +18931,14 @@
       <c r="I414">
         <v>1</v>
       </c>
-      <c r="J414">
-        <v>3</v>
+      <c r="J414" t="s">
+        <v>116</v>
       </c>
       <c r="K414" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L414">
-        <v>4</v>
+        <v>1749</v>
       </c>
       <c r="M414">
         <v>18165</v>
@@ -18969,14 +18975,14 @@
       <c r="I415">
         <v>1</v>
       </c>
-      <c r="J415">
-        <v>3</v>
+      <c r="J415" t="s">
+        <v>116</v>
       </c>
       <c r="K415" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L415">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M415">
         <v>18165</v>
@@ -19013,14 +19019,14 @@
       <c r="I416">
         <v>1</v>
       </c>
-      <c r="J416">
-        <v>3</v>
+      <c r="J416" t="s">
+        <v>116</v>
       </c>
       <c r="K416" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L416">
-        <v>4</v>
+        <v>603</v>
       </c>
       <c r="M416">
         <v>18165</v>
@@ -19057,14 +19063,14 @@
       <c r="I417">
         <v>1</v>
       </c>
-      <c r="J417">
-        <v>3</v>
+      <c r="J417" t="s">
+        <v>115</v>
       </c>
       <c r="K417" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L417">
-        <v>4</v>
+        <v>7435</v>
       </c>
       <c r="M417">
         <v>18167</v>
@@ -19101,14 +19107,14 @@
       <c r="I418">
         <v>1</v>
       </c>
-      <c r="J418">
-        <v>3</v>
+      <c r="J418" t="s">
+        <v>115</v>
       </c>
       <c r="K418" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L418">
-        <v>4</v>
+        <v>6043</v>
       </c>
       <c r="M418">
         <v>18167</v>
@@ -19145,14 +19151,14 @@
       <c r="I419">
         <v>1</v>
       </c>
-      <c r="J419">
-        <v>3</v>
+      <c r="J419" t="s">
+        <v>116</v>
       </c>
       <c r="K419" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L419">
-        <v>4</v>
+        <v>8540</v>
       </c>
       <c r="M419">
         <v>18167</v>
@@ -19189,14 +19195,14 @@
       <c r="I420">
         <v>1</v>
       </c>
-      <c r="J420">
-        <v>3</v>
+      <c r="J420" t="s">
+        <v>116</v>
       </c>
       <c r="K420" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L420">
-        <v>4</v>
+        <v>789</v>
       </c>
       <c r="M420">
         <v>18167</v>
@@ -19233,14 +19239,14 @@
       <c r="I421">
         <v>1</v>
       </c>
-      <c r="J421">
-        <v>3</v>
+      <c r="J421" t="s">
+        <v>116</v>
       </c>
       <c r="K421" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L421">
-        <v>4</v>
+        <v>3830</v>
       </c>
       <c r="M421">
         <v>18167</v>
@@ -19277,14 +19283,14 @@
       <c r="I422">
         <v>1</v>
       </c>
-      <c r="J422">
-        <v>3</v>
+      <c r="J422" t="s">
+        <v>115</v>
       </c>
       <c r="K422" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L422">
-        <v>4</v>
+        <v>1081</v>
       </c>
       <c r="M422">
         <v>18169</v>
@@ -19321,14 +19327,14 @@
       <c r="I423">
         <v>1</v>
       </c>
-      <c r="J423">
-        <v>3</v>
+      <c r="J423" t="s">
+        <v>115</v>
       </c>
       <c r="K423" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L423">
-        <v>4</v>
+        <v>907</v>
       </c>
       <c r="M423">
         <v>18169</v>
@@ -19365,14 +19371,14 @@
       <c r="I424">
         <v>1</v>
       </c>
-      <c r="J424">
-        <v>3</v>
+      <c r="J424" t="s">
+        <v>116</v>
       </c>
       <c r="K424" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L424">
-        <v>4</v>
+        <v>3933</v>
       </c>
       <c r="M424">
         <v>18169</v>
@@ -19409,14 +19415,14 @@
       <c r="I425">
         <v>1</v>
       </c>
-      <c r="J425">
-        <v>3</v>
+      <c r="J425" t="s">
+        <v>116</v>
       </c>
       <c r="K425" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>451</v>
       </c>
       <c r="M425">
         <v>18169</v>
@@ -19453,14 +19459,14 @@
       <c r="I426">
         <v>1</v>
       </c>
-      <c r="J426">
-        <v>3</v>
+      <c r="J426" t="s">
+        <v>116</v>
       </c>
       <c r="K426" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L426">
-        <v>4</v>
+        <v>2965</v>
       </c>
       <c r="M426">
         <v>18169</v>
@@ -19497,14 +19503,14 @@
       <c r="I427">
         <v>1</v>
       </c>
-      <c r="J427">
-        <v>3</v>
+      <c r="J427" t="s">
+        <v>115</v>
       </c>
       <c r="K427" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L427">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="M427">
         <v>18171</v>
@@ -19541,14 +19547,14 @@
       <c r="I428">
         <v>1</v>
       </c>
-      <c r="J428">
-        <v>3</v>
+      <c r="J428" t="s">
+        <v>115</v>
       </c>
       <c r="K428" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L428">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="M428">
         <v>18171</v>
@@ -19585,14 +19591,14 @@
       <c r="I429">
         <v>1</v>
       </c>
-      <c r="J429">
-        <v>3</v>
+      <c r="J429" t="s">
+        <v>116</v>
       </c>
       <c r="K429" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L429">
-        <v>4</v>
+        <v>1322</v>
       </c>
       <c r="M429">
         <v>18171</v>
@@ -19629,14 +19635,14 @@
       <c r="I430">
         <v>1</v>
       </c>
-      <c r="J430">
-        <v>3</v>
+      <c r="J430" t="s">
+        <v>116</v>
       </c>
       <c r="K430" t="s">
+        <v>117</v>
+      </c>
+      <c r="L430">
         <v>115</v>
-      </c>
-      <c r="L430">
-        <v>4</v>
       </c>
       <c r="M430">
         <v>18171</v>
@@ -19673,14 +19679,14 @@
       <c r="I431">
         <v>1</v>
       </c>
-      <c r="J431">
-        <v>3</v>
+      <c r="J431" t="s">
+        <v>116</v>
       </c>
       <c r="K431" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L431">
-        <v>4</v>
+        <v>584</v>
       </c>
       <c r="M431">
         <v>18171</v>
@@ -19717,14 +19723,14 @@
       <c r="I432">
         <v>1</v>
       </c>
-      <c r="J432">
-        <v>3</v>
+      <c r="J432" t="s">
+        <v>115</v>
       </c>
       <c r="K432" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>3140</v>
       </c>
       <c r="M432">
         <v>18173</v>
@@ -19761,14 +19767,14 @@
       <c r="I433">
         <v>1</v>
       </c>
-      <c r="J433">
-        <v>3</v>
+      <c r="J433" t="s">
+        <v>115</v>
       </c>
       <c r="K433" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L433">
-        <v>4</v>
+        <v>2678</v>
       </c>
       <c r="M433">
         <v>18173</v>
@@ -19805,14 +19811,14 @@
       <c r="I434">
         <v>1</v>
       </c>
-      <c r="J434">
-        <v>3</v>
+      <c r="J434" t="s">
+        <v>116</v>
       </c>
       <c r="K434" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L434">
-        <v>4</v>
+        <v>7451</v>
       </c>
       <c r="M434">
         <v>18173</v>
@@ -19849,14 +19855,14 @@
       <c r="I435">
         <v>1</v>
       </c>
-      <c r="J435">
-        <v>3</v>
+      <c r="J435" t="s">
+        <v>116</v>
       </c>
       <c r="K435" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L435">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="M435">
         <v>18173</v>
@@ -19893,14 +19899,14 @@
       <c r="I436">
         <v>1</v>
       </c>
-      <c r="J436">
-        <v>3</v>
+      <c r="J436" t="s">
+        <v>116</v>
       </c>
       <c r="K436" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L436">
-        <v>4</v>
+        <v>4722</v>
       </c>
       <c r="M436">
         <v>18173</v>
@@ -19937,14 +19943,14 @@
       <c r="I437">
         <v>1</v>
       </c>
-      <c r="J437">
-        <v>3</v>
+      <c r="J437" t="s">
+        <v>115</v>
       </c>
       <c r="K437" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L437">
-        <v>4</v>
+        <v>933</v>
       </c>
       <c r="M437">
         <v>18175</v>
@@ -19981,14 +19987,14 @@
       <c r="I438">
         <v>1</v>
       </c>
-      <c r="J438">
-        <v>3</v>
+      <c r="J438" t="s">
+        <v>115</v>
       </c>
       <c r="K438" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L438">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="M438">
         <v>18175</v>
@@ -20025,14 +20031,14 @@
       <c r="I439">
         <v>1</v>
       </c>
-      <c r="J439">
-        <v>3</v>
+      <c r="J439" t="s">
+        <v>116</v>
       </c>
       <c r="K439" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L439">
-        <v>4</v>
+        <v>3157</v>
       </c>
       <c r="M439">
         <v>18175</v>
@@ -20069,14 +20075,14 @@
       <c r="I440">
         <v>1</v>
       </c>
-      <c r="J440">
-        <v>3</v>
+      <c r="J440" t="s">
+        <v>116</v>
       </c>
       <c r="K440" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L440">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M440">
         <v>18175</v>
@@ -20113,14 +20119,14 @@
       <c r="I441">
         <v>1</v>
       </c>
-      <c r="J441">
-        <v>3</v>
+      <c r="J441" t="s">
+        <v>116</v>
       </c>
       <c r="K441" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L441">
-        <v>4</v>
+        <v>1543</v>
       </c>
       <c r="M441">
         <v>18175</v>
@@ -20157,14 +20163,14 @@
       <c r="I442">
         <v>1</v>
       </c>
-      <c r="J442">
-        <v>3</v>
+      <c r="J442" t="s">
+        <v>115</v>
       </c>
       <c r="K442" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L442">
-        <v>4</v>
+        <v>2412</v>
       </c>
       <c r="M442">
         <v>18177</v>
@@ -20201,14 +20207,14 @@
       <c r="I443">
         <v>1</v>
       </c>
-      <c r="J443">
-        <v>3</v>
+      <c r="J443" t="s">
+        <v>115</v>
       </c>
       <c r="K443" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L443">
-        <v>4</v>
+        <v>2026</v>
       </c>
       <c r="M443">
         <v>18177</v>
@@ -20245,14 +20251,14 @@
       <c r="I444">
         <v>1</v>
       </c>
-      <c r="J444">
-        <v>3</v>
+      <c r="J444" t="s">
+        <v>116</v>
       </c>
       <c r="K444" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L444">
-        <v>4</v>
+        <v>6117</v>
       </c>
       <c r="M444">
         <v>18177</v>
@@ -20289,14 +20295,14 @@
       <c r="I445">
         <v>1</v>
       </c>
-      <c r="J445">
-        <v>3</v>
+      <c r="J445" t="s">
+        <v>116</v>
       </c>
       <c r="K445" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L445">
-        <v>4</v>
+        <v>1022</v>
       </c>
       <c r="M445">
         <v>18177</v>
@@ -20333,14 +20339,14 @@
       <c r="I446">
         <v>1</v>
       </c>
-      <c r="J446">
-        <v>3</v>
+      <c r="J446" t="s">
+        <v>116</v>
       </c>
       <c r="K446" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L446">
-        <v>4</v>
+        <v>2938</v>
       </c>
       <c r="M446">
         <v>18177</v>
@@ -20377,14 +20383,14 @@
       <c r="I447">
         <v>1</v>
       </c>
-      <c r="J447">
-        <v>3</v>
+      <c r="J447" t="s">
+        <v>115</v>
       </c>
       <c r="K447" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L447">
-        <v>4</v>
+        <v>797</v>
       </c>
       <c r="M447">
         <v>18179</v>
@@ -20421,14 +20427,14 @@
       <c r="I448">
         <v>1</v>
       </c>
-      <c r="J448">
-        <v>3</v>
+      <c r="J448" t="s">
+        <v>115</v>
       </c>
       <c r="K448" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L448">
-        <v>4</v>
+        <v>764</v>
       </c>
       <c r="M448">
         <v>18179</v>
@@ -20465,14 +20471,14 @@
       <c r="I449">
         <v>1</v>
       </c>
-      <c r="J449">
-        <v>3</v>
+      <c r="J449" t="s">
+        <v>116</v>
       </c>
       <c r="K449" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L449">
-        <v>4</v>
+        <v>2778</v>
       </c>
       <c r="M449">
         <v>18179</v>
@@ -20509,14 +20515,14 @@
       <c r="I450">
         <v>1</v>
       </c>
-      <c r="J450">
-        <v>3</v>
+      <c r="J450" t="s">
+        <v>116</v>
       </c>
       <c r="K450" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L450">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M450">
         <v>18179</v>
@@ -20553,14 +20559,14 @@
       <c r="I451">
         <v>1</v>
       </c>
-      <c r="J451">
-        <v>3</v>
+      <c r="J451" t="s">
+        <v>116</v>
       </c>
       <c r="K451" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L451">
-        <v>4</v>
+        <v>3827</v>
       </c>
       <c r="M451">
         <v>18179</v>
@@ -20597,14 +20603,14 @@
       <c r="I452">
         <v>1</v>
       </c>
-      <c r="J452">
-        <v>3</v>
+      <c r="J452" t="s">
+        <v>115</v>
       </c>
       <c r="K452" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L452">
-        <v>4</v>
+        <v>913</v>
       </c>
       <c r="M452">
         <v>18181</v>
@@ -20641,14 +20647,14 @@
       <c r="I453">
         <v>1</v>
       </c>
-      <c r="J453">
-        <v>3</v>
+      <c r="J453" t="s">
+        <v>115</v>
       </c>
       <c r="K453" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L453">
-        <v>4</v>
+        <v>710</v>
       </c>
       <c r="M453">
         <v>18181</v>
@@ -20685,14 +20691,14 @@
       <c r="I454">
         <v>1</v>
       </c>
-      <c r="J454">
-        <v>3</v>
+      <c r="J454" t="s">
+        <v>116</v>
       </c>
       <c r="K454" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L454">
-        <v>4</v>
+        <v>3045</v>
       </c>
       <c r="M454">
         <v>18181</v>
@@ -20729,14 +20735,14 @@
       <c r="I455">
         <v>1</v>
       </c>
-      <c r="J455">
-        <v>3</v>
+      <c r="J455" t="s">
+        <v>116</v>
       </c>
       <c r="K455" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L455">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="M455">
         <v>18181</v>
@@ -20773,14 +20779,14 @@
       <c r="I456">
         <v>1</v>
       </c>
-      <c r="J456">
-        <v>3</v>
+      <c r="J456" t="s">
+        <v>116</v>
       </c>
       <c r="K456" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>1754</v>
       </c>
       <c r="M456">
         <v>18181</v>
@@ -20817,14 +20823,14 @@
       <c r="I457">
         <v>1</v>
       </c>
-      <c r="J457">
-        <v>3</v>
+      <c r="J457" t="s">
+        <v>115</v>
       </c>
       <c r="K457" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L457">
-        <v>4</v>
+        <v>1144</v>
       </c>
       <c r="M457">
         <v>18183</v>
@@ -20861,14 +20867,14 @@
       <c r="I458">
         <v>1</v>
       </c>
-      <c r="J458">
-        <v>3</v>
+      <c r="J458" t="s">
+        <v>115</v>
       </c>
       <c r="K458" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L458">
-        <v>4</v>
+        <v>884</v>
       </c>
       <c r="M458">
         <v>18183</v>
@@ -20905,14 +20911,14 @@
       <c r="I459">
         <v>1</v>
       </c>
-      <c r="J459">
-        <v>3</v>
+      <c r="J459" t="s">
+        <v>116</v>
       </c>
       <c r="K459" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L459">
-        <v>4</v>
+        <v>3920</v>
       </c>
       <c r="M459">
         <v>18183</v>
@@ -20949,14 +20955,14 @@
       <c r="I460">
         <v>1</v>
       </c>
-      <c r="J460">
-        <v>3</v>
+      <c r="J460" t="s">
+        <v>116</v>
       </c>
       <c r="K460" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L460">
-        <v>4</v>
+        <v>611</v>
       </c>
       <c r="M460">
         <v>18183</v>
@@ -20993,14 +20999,14 @@
       <c r="I461">
         <v>1</v>
       </c>
-      <c r="J461">
-        <v>3</v>
+      <c r="J461" t="s">
+        <v>116</v>
       </c>
       <c r="K461" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L461">
-        <v>4</v>
+        <v>4065</v>
       </c>
       <c r="M461">
         <v>18183</v>
